--- a/results/xgbr.xlsx
+++ b/results/xgbr.xlsx
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03542559296103653</v>
+        <v>-0.03699007383682762</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07016940602780486</v>
+        <v>-0.07258513832132141</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.294366255338225</v>
+        <v>-4.28537385272397</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.53624877616672</v>
+        <v>-35.37974730756679</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1385574058898735</v>
+        <v>-0.1481654852644716</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1152982524650981</v>
+        <v>-0.1596147393180158</v>
       </c>
     </row>
     <row r="5">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5138774579762749</v>
+        <v>0.5207640195710195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.455014030112032</v>
+        <v>0.4712270008950245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4938352592622864</v>
+        <v>0.4511040903126775</v>
       </c>
       <c r="E7" t="n">
-        <v>0.428904007101169</v>
+        <v>0.383217285085094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6198759452139612</v>
+        <v>0.6270308418840341</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6837933400629668</v>
+        <v>0.6381187558940977</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5018985771318381</v>
+        <v>0.5082128883787218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4349657474359732</v>
+        <v>0.4505376134206387</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.056294259246962</v>
+        <v>-1.744479548436613</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.659042111452052</v>
+        <v>-12.44586318514495</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5679203561358136</v>
+        <v>0.5724755782496311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4864159344971754</v>
+        <v>0.3888760447218207</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.383435316087182</v>
+        <v>2.366492859807684</v>
       </c>
       <c r="C9" t="n">
-        <v>2.442358294437192</v>
+        <v>2.405754737303325</v>
       </c>
       <c r="D9" t="n">
-        <v>2.236147730081872</v>
+        <v>2.328624938986269</v>
       </c>
       <c r="E9" t="n">
-        <v>2.24983359822574</v>
+        <v>2.338093845740941</v>
       </c>
       <c r="F9" t="n">
-        <v>2.335044841238722</v>
+        <v>2.312964720183349</v>
       </c>
       <c r="G9" t="n">
-        <v>1.988401677877664</v>
+        <v>2.127167318294557</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5244020182722361</v>
+        <v>0.5312885798669806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4872121827760698</v>
+        <v>0.5034251535590623</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5509100298070805</v>
+        <v>0.5081788608574715</v>
       </c>
       <c r="E11" t="n">
-        <v>1.097699755154691</v>
+        <v>1.052013033138616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6215270618066474</v>
+        <v>0.6286819584767204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3704671660904978</v>
+        <v>0.3247925819216287</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5373241700928746</v>
+        <v>0.5452029622155494</v>
       </c>
       <c r="C12" t="n">
-        <v>0.505135153463778</v>
+        <v>0.5231227517419601</v>
       </c>
       <c r="D12" t="n">
-        <v>2.238071996091264</v>
+        <v>2.540894304287357</v>
       </c>
       <c r="E12" t="n">
-        <v>10.87720666471467</v>
+        <v>22.93388412242184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7064777620256871</v>
+        <v>0.7206410635141027</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6017141869622734</v>
+        <v>0.5484907840398365</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.052966395336664</v>
+        <v>-1.069908851616163</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9188718760716075</v>
+        <v>-0.9554754332054753</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9953763827173892</v>
+        <v>-0.9028991738129926</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.596061497965664</v>
+        <v>-1.507801250450464</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.455405297584101</v>
+        <v>-1.477485418639474</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9417753645550968</v>
+        <v>-0.8030097241382035</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="C14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>-6</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/xgbr.xlsx
+++ b/results/xgbr.xlsx
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5207640195710195</v>
+        <v>0.4922086556772263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4712270008950245</v>
+        <v>0.4338329390235817</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4511040903126775</v>
+        <v>0.4395035422254192</v>
       </c>
       <c r="E7" t="n">
-        <v>0.383217285085094</v>
+        <v>0.2743792769581209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6270308418840341</v>
+        <v>0.6149604763607597</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6381187558940977</v>
+        <v>0.6484740616057411</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5082128883787218</v>
+        <v>0.4789096630281282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4505376134206387</v>
+        <v>0.4116804279846248</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.744479548436613</v>
+        <v>-1.802482288872904</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.44586318514495</v>
+        <v>-14.81853176231296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5724755782496311</v>
+        <v>0.558639645898761</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3888760447218207</v>
+        <v>0.406363481519629</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.366492859807684</v>
+        <v>2.435976738702271</v>
       </c>
       <c r="C9" t="n">
-        <v>2.405754737303325</v>
+        <v>2.489367491760491</v>
       </c>
       <c r="D9" t="n">
-        <v>2.328624938986269</v>
+        <v>2.353103247671958</v>
       </c>
       <c r="E9" t="n">
-        <v>2.338093845740941</v>
+        <v>2.53600835639162</v>
       </c>
       <c r="F9" t="n">
-        <v>2.312964720183349</v>
+        <v>2.350093839592844</v>
       </c>
       <c r="G9" t="n">
-        <v>2.127167318294557</v>
+        <v>2.09651175917589</v>
       </c>
     </row>
     <row r="10">
@@ -675,7 +675,7 @@
         <v>64</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5312885798669806</v>
+        <v>0.5027332159731874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5034251535590623</v>
+        <v>0.4660310916876195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5081788608574715</v>
+        <v>0.4965783127702132</v>
       </c>
       <c r="E11" t="n">
-        <v>1.052013033138616</v>
+        <v>0.9431750250116432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6286819584767204</v>
+        <v>0.6166115929534459</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3247925819216287</v>
+        <v>0.3351478876332721</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5452029622155494</v>
+        <v>0.5158997368649558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5231227517419601</v>
+        <v>0.4842655663059462</v>
       </c>
       <c r="D12" t="n">
-        <v>2.540894304287357</v>
+        <v>2.482891563851065</v>
       </c>
       <c r="E12" t="n">
-        <v>22.93388412242184</v>
+        <v>20.56121554525382</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7206410635141027</v>
+        <v>0.7068051311632326</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5484907840398365</v>
+        <v>0.5659782208376448</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.069908851616163</v>
+        <v>-1.000424972721575</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9554754332054753</v>
+        <v>-0.8718626787483092</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9028991738129926</v>
+        <v>-0.8784208651273038</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.507801250450464</v>
+        <v>-1.309886739799784</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.477485418639474</v>
+        <v>-1.440356299229979</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8030097241382035</v>
+        <v>-0.8336652832568703</v>
       </c>
     </row>
     <row r="14">
@@ -775,7 +775,7 @@
         <v>-10</v>
       </c>
       <c r="C14" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
